--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_ocean.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_ocean.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="602">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
+  </si>
+  <si>
+    <t>Prather 2nd moment (PSOM)</t>
   </si>
   <si>
     <t>4.3.5 - Passive Tracers</t>
@@ -5349,11 +5352,13 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -5370,7 +5375,7 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -5382,7 +5387,7 @@
         <v>38</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
@@ -5390,7 +5395,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -5407,7 +5412,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -5419,7 +5424,7 @@
         <v>31</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -5427,10 +5432,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -5439,12 +5444,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -5461,7 +5466,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -5473,15 +5478,17 @@
         <v>31</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -5498,7 +5505,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -5510,7 +5517,7 @@
         <v>91</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -5563,10 +5570,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5575,10 +5582,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5587,12 +5594,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -5609,7 +5616,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -5621,7 +5628,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5629,7 +5636,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -5646,7 +5653,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -5658,7 +5665,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -5666,10 +5673,10 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5678,12 +5685,12 @@
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>26</v>
@@ -5700,7 +5707,7 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -5712,17 +5719,17 @@
         <v>38</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -5739,7 +5746,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -5751,17 +5758,17 @@
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -5778,7 +5785,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -5790,20 +5797,20 @@
         <v>38</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -5812,12 +5819,12 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -5834,7 +5841,7 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -5846,17 +5853,17 @@
         <v>38</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>26</v>
@@ -5873,7 +5880,7 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
@@ -5885,7 +5892,7 @@
         <v>138</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
@@ -5893,7 +5900,7 @@
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>26</v>
@@ -5910,7 +5917,7 @@
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
@@ -5922,17 +5929,17 @@
         <v>31</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -5949,7 +5956,7 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -5961,7 +5968,7 @@
         <v>31</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
@@ -5971,7 +5978,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -5988,7 +5995,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -6000,7 +6007,7 @@
         <v>91</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -6008,10 +6015,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6020,12 +6027,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -6042,7 +6049,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -6054,7 +6061,7 @@
         <v>91</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -6064,7 +6071,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -6081,7 +6088,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -6093,7 +6100,7 @@
         <v>91</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -6101,10 +6108,10 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6113,12 +6120,12 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -6135,7 +6142,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -6147,17 +6154,17 @@
         <v>38</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -6174,7 +6181,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -6186,17 +6193,17 @@
         <v>38</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
       <c r="B76" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>26</v>
@@ -6213,7 +6220,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -6225,20 +6232,20 @@
         <v>38</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6247,12 +6254,12 @@
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
       <c r="B84" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>26</v>
@@ -6269,7 +6276,7 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>1</v>
@@ -6281,15 +6288,17 @@
         <v>38</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
-      <c r="B88" s="13"/>
+      <c r="B88" s="13" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>26</v>
@@ -6306,7 +6315,7 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>0</v>
@@ -6318,7 +6327,7 @@
         <v>138</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
@@ -6326,7 +6335,7 @@
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>26</v>
@@ -6343,7 +6352,7 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>0</v>
@@ -6355,15 +6364,17 @@
         <v>31</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
-      <c r="B96" s="13"/>
+      <c r="B96" s="13" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>26</v>
@@ -6380,7 +6391,7 @@
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
@@ -6392,15 +6403,17 @@
         <v>138</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
-      <c r="B100" s="13"/>
+      <c r="B100" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>26</v>
@@ -6417,7 +6430,7 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -6429,7 +6442,7 @@
         <v>91</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -6437,10 +6450,10 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6449,12 +6462,12 @@
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
       <c r="B108" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>26</v>
@@ -6471,7 +6484,7 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C111" s="11" t="b">
         <v>1</v>
@@ -6483,17 +6496,17 @@
         <v>38</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
       <c r="B112" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>26</v>
@@ -6510,7 +6523,7 @@
     </row>
     <row r="115" spans="2:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>0</v>
@@ -6522,7 +6535,7 @@
         <v>138</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="24" customHeight="1">
@@ -6532,7 +6545,7 @@
     </row>
     <row r="118" spans="2:6" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>26</v>
@@ -6549,7 +6562,7 @@
     </row>
     <row r="119" spans="2:6" ht="24" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C119" s="11" t="b">
         <v>1</v>
@@ -6561,17 +6574,17 @@
         <v>31</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="24" customHeight="1">
       <c r="B120" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>26</v>
@@ -6588,7 +6601,7 @@
     </row>
     <row r="123" spans="2:6" ht="24" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C123" s="11" t="b">
         <v>1</v>
@@ -6600,7 +6613,7 @@
         <v>31</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="24" customHeight="1">
@@ -6683,10 +6696,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6695,10 +6708,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6707,12 +6720,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -6729,7 +6742,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -6741,7 +6754,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -6749,10 +6762,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6761,12 +6774,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -6783,7 +6796,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -6795,7 +6808,7 @@
         <v>91</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -6803,10 +6816,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6815,12 +6828,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -6837,7 +6850,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -6849,17 +6862,17 @@
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -6876,7 +6889,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
@@ -6888,7 +6901,7 @@
         <v>77</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -6896,7 +6909,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -6913,7 +6926,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -6925,7 +6938,7 @@
         <v>138</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -6933,7 +6946,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -6950,7 +6963,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -6962,20 +6975,20 @@
         <v>31</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6984,12 +6997,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>26</v>
@@ -7006,7 +7019,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -7018,17 +7031,17 @@
         <v>38</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -7045,7 +7058,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -7057,7 +7070,7 @@
         <v>77</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -7065,7 +7078,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -7082,7 +7095,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -7094,7 +7107,7 @@
         <v>138</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -7102,7 +7115,7 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>26</v>
@@ -7119,7 +7132,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -7131,20 +7144,20 @@
         <v>31</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -7153,12 +7166,12 @@
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -7175,7 +7188,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -7187,17 +7200,17 @@
         <v>38</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>26</v>
@@ -7214,7 +7227,7 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -7226,7 +7239,7 @@
         <v>31</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
@@ -7234,7 +7247,7 @@
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -7251,7 +7264,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -7263,7 +7276,7 @@
         <v>91</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
@@ -7271,7 +7284,7 @@
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -7288,7 +7301,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -7300,7 +7313,7 @@
         <v>91</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -7308,10 +7321,10 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -7320,12 +7333,12 @@
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>26</v>
@@ -7342,7 +7355,7 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
@@ -7354,17 +7367,17 @@
         <v>38</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
       <c r="B84" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>26</v>
@@ -7381,7 +7394,7 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>0</v>
@@ -7393,7 +7406,7 @@
         <v>138</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
@@ -7401,7 +7414,7 @@
     </row>
     <row r="90" spans="2:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>26</v>
@@ -7418,7 +7431,7 @@
     </row>
     <row r="91" spans="2:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -7430,7 +7443,7 @@
         <v>31</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="24" customHeight="1">
@@ -7438,7 +7451,7 @@
     </row>
     <row r="94" spans="2:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>26</v>
@@ -7455,7 +7468,7 @@
     </row>
     <row r="95" spans="2:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -7467,7 +7480,7 @@
         <v>31</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="24" customHeight="1">
@@ -7475,10 +7488,10 @@
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -7487,12 +7500,12 @@
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
       <c r="B100" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>26</v>
@@ -7509,7 +7522,7 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -7521,17 +7534,17 @@
         <v>38</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
       <c r="B104" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>26</v>
@@ -7548,7 +7561,7 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C107" s="11" t="b">
         <v>0</v>
@@ -7560,7 +7573,7 @@
         <v>138</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
@@ -7568,7 +7581,7 @@
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>26</v>
@@ -7585,7 +7598,7 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C111" s="11" t="b">
         <v>1</v>
@@ -7597,7 +7610,7 @@
         <v>31</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
@@ -7605,7 +7618,7 @@
     </row>
     <row r="114" spans="2:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>26</v>
@@ -7622,7 +7635,7 @@
     </row>
     <row r="115" spans="2:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>1</v>
@@ -7634,12 +7647,12 @@
         <v>31</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="24" customHeight="1">
       <c r="B116" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -7703,10 +7716,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -7715,10 +7728,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -7727,12 +7740,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -7749,7 +7762,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -7761,7 +7774,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -7769,7 +7782,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -7786,7 +7799,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -7798,17 +7811,17 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -7825,7 +7838,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -7837,7 +7850,7 @@
         <v>91</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -7845,10 +7858,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7857,12 +7870,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -7879,7 +7892,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -7891,7 +7904,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -7899,7 +7912,7 @@
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -7916,7 +7929,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -7928,17 +7941,17 @@
         <v>38</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -7955,7 +7968,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -7967,7 +7980,7 @@
         <v>138</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -7975,7 +7988,7 @@
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -7992,7 +8005,7 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -8004,12 +8017,12 @@
         <v>31</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -8047,10 +8060,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8059,10 +8072,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8071,12 +8084,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -8093,7 +8106,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8105,7 +8118,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8113,7 +8126,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -8130,7 +8143,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -8142,7 +8155,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -8150,7 +8163,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -8167,7 +8180,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
@@ -8179,17 +8192,17 @@
         <v>31</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>26</v>
@@ -8206,7 +8219,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -8218,7 +8231,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -8226,7 +8239,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -8243,7 +8256,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -8255,7 +8268,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -8263,7 +8276,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -8280,7 +8293,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -8292,7 +8305,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -8300,7 +8313,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -8317,7 +8330,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -8329,7 +8342,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -8337,10 +8350,10 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -8349,12 +8362,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>26</v>
@@ -8371,7 +8384,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -8383,20 +8396,20 @@
         <v>38</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -8405,12 +8418,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -8427,7 +8440,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -8439,20 +8452,20 @@
         <v>38</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -8461,12 +8474,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>26</v>
@@ -8483,7 +8496,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -8495,7 +8508,7 @@
         <v>38</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -8503,7 +8516,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -8520,7 +8533,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -8532,7 +8545,7 @@
         <v>91</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -8542,7 +8555,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -8559,7 +8572,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>0</v>
@@ -8571,7 +8584,7 @@
         <v>31</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -8579,10 +8592,10 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -8591,12 +8604,12 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -8613,7 +8626,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -8625,7 +8638,7 @@
         <v>38</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
@@ -8633,7 +8646,7 @@
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -8650,7 +8663,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -8662,7 +8675,7 @@
         <v>38</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -8670,7 +8683,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>26</v>
@@ -8687,7 +8700,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -8699,7 +8712,7 @@
         <v>31</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">

--- a/cmip6/models/miroc6/cmip6_miroc_miroc6_ocean.xlsx
+++ b/cmip6/models/miroc6/cmip6_miroc_miroc6_ocean.xlsx
@@ -46,7 +46,7 @@
     <t>MIROC6</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean</t>
